--- a/Documentação e backlog/gr02PlanoRisco.xlsx
+++ b/Documentação e backlog/gr02PlanoRisco.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Documentos\Programação\SPTech\1ADSA-Projeto-Inovação\Sprint2\Grupo-2\Github\Sprint2-Wynn\Documentação e backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db57819f95dc0ac9/Área de Trabalho/Sprint2-Wynn/Documentação e backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFBE0D9-F198-41FE-ADE1-D11D454A1131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{1DFBE0D9-F198-41FE-ADE1-D11D454A1131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FCDEF91-9B7F-48F2-AA59-FA928D88A441}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4260C681-DF76-4EA0-903F-0E3BC4DE7068}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -166,6 +166,69 @@
   </si>
   <si>
     <t>Será chamada a atenção do integrante, admoestação verbal</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>3 (A, C, D, E, N)</t>
+  </si>
+  <si>
+    <t>9 (B)</t>
+  </si>
+  <si>
+    <t>6 (G, I, M)</t>
+  </si>
+  <si>
+    <t>1 (H)</t>
+  </si>
+  <si>
+    <t>3 (J)</t>
+  </si>
+  <si>
+    <t>2 (L)</t>
+  </si>
+  <si>
+    <t>4 (F, K)</t>
   </si>
 </sst>
 </file>
@@ -554,232 +617,232 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,9 +861,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -838,7 +901,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -944,7 +1007,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1086,7 +1149,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1096,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD46259-D5BE-496C-B70B-24BB09F91FDB}">
   <dimension ref="C4:XFB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,724 +1175,763 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:22 16382:16382" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
     </row>
     <row r="5" spans="3:22 16382:16382" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="68" t="s">
+      <c r="I5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="37">
+      <c r="L5" s="62"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="76"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="41"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5" s="41"/>
+      <c r="V5" s="42"/>
+    </row>
+    <row r="6" spans="3:22 16382:16382" x14ac:dyDescent="0.25">
+      <c r="C6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="39">
+        <v>1</v>
+      </c>
+      <c r="F6" s="39">
         <v>3</v>
       </c>
-      <c r="O5" s="38"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="2">
-        <v>6</v>
-      </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="2">
-        <v>9</v>
-      </c>
-      <c r="U5" s="3"/>
-      <c r="V5" s="4"/>
-    </row>
-    <row r="6" spans="3:22 16382:16382" x14ac:dyDescent="0.25">
-      <c r="C6" s="42">
-        <v>1</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="43">
-        <v>1</v>
-      </c>
-      <c r="F6" s="43">
-        <v>3</v>
-      </c>
-      <c r="G6" s="43">
+      <c r="G6" s="39">
         <f>PRODUCT(E6,F6)</f>
         <v>3</v>
       </c>
-      <c r="H6" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="49" t="s">
+      <c r="H6" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="28">
-        <v>2</v>
-      </c>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="14">
-        <v>4</v>
-      </c>
-      <c r="R6" s="15"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="5">
+      <c r="L6" s="62"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="67"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="53"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="43">
         <v>6</v>
       </c>
-      <c r="U6" s="6"/>
-      <c r="V6" s="7"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="45"/>
     </row>
     <row r="7" spans="3:22 16382:16382" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="47"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="41"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="10"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="27"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="48"/>
     </row>
     <row r="8" spans="3:22 16382:16382" x14ac:dyDescent="0.25">
-      <c r="C8" s="53">
-        <v>2</v>
-      </c>
-      <c r="D8" s="54" t="s">
+      <c r="C8" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="30">
         <v>3</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="30">
         <v>3</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="13">
         <f t="shared" ref="G8" si="0">PRODUCT(E8,F8)</f>
         <v>9</v>
       </c>
-      <c r="H8" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="56" t="s">
+      <c r="H8" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="10"/>
-      <c r="XFB8" s="48"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="48"/>
+      <c r="XFB8" s="31"/>
     </row>
     <row r="9" spans="3:22 16382:16382" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="60"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="13"/>
-      <c r="XFB9" s="48"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="51"/>
+      <c r="XFB9" s="31"/>
     </row>
     <row r="10" spans="3:22 16382:16382" x14ac:dyDescent="0.25">
-      <c r="C10" s="46">
+      <c r="C10" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+      <c r="F10" s="25">
         <v>3</v>
       </c>
-      <c r="D10" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="44">
-        <v>1</v>
-      </c>
-      <c r="F10" s="44">
-        <v>3</v>
-      </c>
-      <c r="G10" s="44">
+      <c r="G10" s="25">
         <f t="shared" ref="G10" si="1">PRODUCT(E10,F10)</f>
         <v>3</v>
       </c>
-      <c r="H10" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="40" t="s">
+      <c r="H10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="28">
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="67"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="66">
+        <v>2</v>
+      </c>
+      <c r="R10" s="67"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="U10" s="53"/>
+      <c r="V10" s="54"/>
+    </row>
+    <row r="11" spans="3:22 16382:16382" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="22"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="27"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="57"/>
+    </row>
+    <row r="12" spans="3:22 16382:16382" x14ac:dyDescent="0.25">
+      <c r="C12" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="30">
         <v>1</v>
       </c>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="28">
-        <v>2</v>
-      </c>
-      <c r="R10" s="29"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="14">
+      <c r="F12" s="30">
         <v>3</v>
       </c>
-      <c r="U10" s="15"/>
-      <c r="V10" s="16"/>
-    </row>
-    <row r="11" spans="3:22 16382:16382" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="47"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="41"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="19"/>
-    </row>
-    <row r="12" spans="3:22 16382:16382" x14ac:dyDescent="0.25">
-      <c r="C12" s="53">
-        <v>4</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="54">
-        <v>1</v>
-      </c>
-      <c r="F12" s="54">
-        <v>3</v>
-      </c>
-      <c r="G12" s="55">
+      <c r="G12" s="13">
         <f t="shared" ref="G12" si="2">PRODUCT(E12,F12)</f>
         <v>3</v>
       </c>
-      <c r="H12" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="56" t="s">
+      <c r="H12" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="19"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="57"/>
     </row>
     <row r="13" spans="3:22 16382:16382" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="61"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="62"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="22"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="15"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="60"/>
     </row>
     <row r="14" spans="3:22 16382:16382" x14ac:dyDescent="0.25">
-      <c r="C14" s="50">
-        <v>5</v>
-      </c>
-      <c r="D14" s="51" t="s">
+      <c r="C14" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="23">
         <v>1</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="23">
         <v>3</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="25">
         <f t="shared" ref="G14" si="3">PRODUCT(E14,F14)</f>
         <v>3</v>
       </c>
-      <c r="H14" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="52" t="s">
+      <c r="H14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="26" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="23" t="s">
+      <c r="N14" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23" t="s">
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23" t="s">
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
     </row>
     <row r="15" spans="3:22 16382:16382" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="47"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="41"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="27"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
     </row>
     <row r="16" spans="3:22 16382:16382" x14ac:dyDescent="0.25">
-      <c r="C16" s="63">
-        <v>6</v>
-      </c>
-      <c r="D16" s="64" t="s">
+      <c r="C16" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="64">
-        <v>2</v>
-      </c>
-      <c r="F16" s="64">
-        <v>2</v>
-      </c>
-      <c r="G16" s="55">
+      <c r="E16" s="11">
+        <v>2</v>
+      </c>
+      <c r="F16" s="11">
+        <v>2</v>
+      </c>
+      <c r="G16" s="13">
         <f t="shared" ref="G16" si="4">PRODUCT(E16,F16)</f>
         <v>4</v>
       </c>
-      <c r="H16" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="65" t="s">
+      <c r="H16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="14" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
     </row>
     <row r="17" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="61"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="62"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="15"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C18" s="50">
-        <v>7</v>
-      </c>
-      <c r="D18" s="51" t="s">
+      <c r="C18" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="51">
-        <v>2</v>
-      </c>
-      <c r="F18" s="51">
+      <c r="E18" s="23">
+        <v>2</v>
+      </c>
+      <c r="F18" s="23">
         <v>3</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="25">
         <f t="shared" ref="G18" si="5">PRODUCT(E18,F18)</f>
         <v>6</v>
       </c>
-      <c r="H18" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="52" t="s">
+      <c r="H18" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="Q18" s="27" t="s">
+      <c r="Q18" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
     </row>
     <row r="19" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="47"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="41"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="27"/>
     </row>
     <row r="20" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C20" s="63">
-        <v>8</v>
-      </c>
-      <c r="D20" s="64" t="s">
+      <c r="C20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="11">
         <v>1</v>
       </c>
-      <c r="F20" s="64">
+      <c r="F20" s="11">
         <v>1</v>
       </c>
-      <c r="G20" s="55">
+      <c r="G20" s="13">
         <f t="shared" ref="G20" si="6">PRODUCT(E20,F20)</f>
         <v>1</v>
       </c>
-      <c r="H20" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="65" t="s">
+      <c r="H20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="61"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="62"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C22" s="50">
-        <v>9</v>
-      </c>
-      <c r="D22" s="51" t="s">
+      <c r="C22" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="51">
-        <v>2</v>
-      </c>
-      <c r="F22" s="51">
+      <c r="E22" s="23">
+        <v>2</v>
+      </c>
+      <c r="F22" s="23">
         <v>3</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="25">
         <f t="shared" ref="G22" si="7">PRODUCT(E22,F22)</f>
         <v>6</v>
       </c>
-      <c r="H22" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" s="52" t="s">
+      <c r="H22" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="3:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="47"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="41"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C24" s="63">
-        <v>10</v>
-      </c>
-      <c r="D24" s="64" t="s">
+      <c r="C24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="64">
+      <c r="E24" s="11">
         <v>3</v>
       </c>
-      <c r="F24" s="64">
+      <c r="F24" s="11">
         <v>1</v>
       </c>
-      <c r="G24" s="55">
+      <c r="G24" s="13">
         <f t="shared" ref="G24" si="8">PRODUCT(E24,F24)</f>
         <v>3</v>
       </c>
-      <c r="H24" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="I24" s="65" t="s">
+      <c r="H24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="61"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="62"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="15"/>
     </row>
     <row r="26" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C26" s="70">
-        <v>11</v>
-      </c>
-      <c r="D26" s="71" t="s">
+      <c r="C26" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="71">
-        <v>2</v>
-      </c>
-      <c r="F26" s="71">
-        <v>2</v>
-      </c>
-      <c r="G26" s="72">
+      <c r="E26" s="18">
+        <v>2</v>
+      </c>
+      <c r="F26" s="18">
+        <v>2</v>
+      </c>
+      <c r="G26" s="20">
         <f t="shared" ref="G26" si="9">PRODUCT(E26,F26)</f>
         <v>4</v>
       </c>
-      <c r="H26" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" s="73" t="s">
+      <c r="H26" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="74"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="76"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C28" s="63">
-        <v>12</v>
-      </c>
-      <c r="D28" s="64" t="s">
+      <c r="C28" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="64">
+      <c r="E28" s="11">
         <v>1</v>
       </c>
-      <c r="F28" s="64">
-        <v>2</v>
-      </c>
-      <c r="G28" s="55">
+      <c r="F28" s="11">
+        <v>2</v>
+      </c>
+      <c r="G28" s="13">
         <f t="shared" ref="G28" si="10">PRODUCT(E28,F28)</f>
         <v>2</v>
       </c>
-      <c r="H28" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" s="65" t="s">
+      <c r="H28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="61"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="62"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="15"/>
     </row>
     <row r="30" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C30" s="70">
-        <v>13</v>
-      </c>
-      <c r="D30" s="71" t="s">
+      <c r="C30" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="71">
-        <v>2</v>
-      </c>
-      <c r="F30" s="71">
+      <c r="E30" s="18">
+        <v>2</v>
+      </c>
+      <c r="F30" s="18">
         <v>3</v>
       </c>
-      <c r="G30" s="72">
+      <c r="G30" s="20">
         <f t="shared" ref="G30" si="11">PRODUCT(E30,F30)</f>
         <v>6</v>
       </c>
-      <c r="H30" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" s="73" t="s">
+      <c r="H30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="3:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="74"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="76"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="3:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="63">
-        <v>14</v>
-      </c>
-      <c r="D32" s="64" t="s">
+      <c r="C32" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="64">
+      <c r="E32" s="11">
         <v>1</v>
       </c>
-      <c r="F32" s="64">
+      <c r="F32" s="11">
         <v>3</v>
       </c>
-      <c r="G32" s="55">
+      <c r="G32" s="13">
         <f t="shared" ref="G32" si="12">PRODUCT(E32,F32)</f>
         <v>3</v>
       </c>
-      <c r="H32" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="I32" s="65" t="s">
+      <c r="H32" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="3:10" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="61"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="62"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="15"/>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J34" s="77"/>
+      <c r="J34" s="6"/>
     </row>
     <row r="35" spans="3:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="T6:V9"/>
+    <mergeCell ref="T10:V13"/>
+    <mergeCell ref="T14:V17"/>
+    <mergeCell ref="K10:M13"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N6:P9"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="K6:M9"/>
+    <mergeCell ref="N10:P13"/>
+    <mergeCell ref="N14:P17"/>
+    <mergeCell ref="Q14:S17"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="Q6:S9"/>
+    <mergeCell ref="Q10:S13"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="XFB8:XFB9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
@@ -1851,73 +1953,34 @@
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="XFB8:XFB9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="T6:V9"/>
-    <mergeCell ref="T10:V13"/>
-    <mergeCell ref="T14:V17"/>
-    <mergeCell ref="K10:M13"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N6:P9"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="K6:M9"/>
-    <mergeCell ref="N10:P13"/>
-    <mergeCell ref="N14:P17"/>
-    <mergeCell ref="Q14:S17"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="Q6:S9"/>
-    <mergeCell ref="Q10:S13"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
